--- a/data/trans_camb/P74B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 15,14</t>
+          <t>-13,52; 14,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 19,99</t>
+          <t>-10,69; 17,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 20,17</t>
+          <t>-20,21; 19,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,35; 13,59</t>
+          <t>-28,57; 15,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 18,34</t>
+          <t>-12,79; 19,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 18,08</t>
+          <t>-11,75; 17,67</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,66; 173,94</t>
+          <t>-64,19; 144,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-51,68; 228,12</t>
+          <t>-50,81; 196,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 30,64</t>
+          <t>-24,41; 29,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 20,91</t>
+          <t>-35,3; 22,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 59,52</t>
+          <t>-30,34; 62,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 56,32</t>
+          <t>-27,67; 58,04</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 14,75</t>
+          <t>3,08; 14,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 7,48</t>
+          <t>-2,3; 7,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,52; -20,18</t>
+          <t>-40,7; -20,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,08; -11,6</t>
+          <t>-30,33; -11,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 7,2</t>
+          <t>-5,98; 7,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 9,24</t>
+          <t>-4,5; 8,58</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,91; 273,19</t>
+          <t>27,44; 255,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 142,62</t>
+          <t>-24,81; 151,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,94; -24,32</t>
+          <t>-44,9; -24,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,36; -14,6</t>
+          <t>-32,71; -14,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 26,17</t>
+          <t>-17,03; 26,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 33,3</t>
+          <t>-13,23; 30,26</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 8,83</t>
+          <t>-0,04; 8,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 10,57</t>
+          <t>1,01; 9,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,03; -10,93</t>
+          <t>-28,86; -12,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,85; -12,33</t>
+          <t>-29,28; -13,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 9,49</t>
+          <t>-1,82; 9,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 10,18</t>
+          <t>-0,56; 10,35</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,01; 136,36</t>
+          <t>-0,53; 139,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,16; 175,19</t>
+          <t>8,34; 153,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,67; -13,37</t>
+          <t>-32,42; -15,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,0; -15,63</t>
+          <t>-33,11; -16,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 35,18</t>
+          <t>-5,38; 34,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 37,15</t>
+          <t>-1,79; 38,73</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,66; 11,17</t>
+          <t>1,37; 10,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 6,42</t>
+          <t>-1,24; 6,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,22; -1,22</t>
+          <t>-21,93; -1,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,87; -6,87</t>
+          <t>-26,24; -6,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,68; 14,14</t>
+          <t>1,28; 14,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 8,94</t>
+          <t>-2,41; 9,22</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>21,84; 335,98</t>
+          <t>16,3; 318,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 211,77</t>
+          <t>-22,83; 193,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,15; -1,67</t>
+          <t>-25,83; -2,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,61; -9,38</t>
+          <t>-31,28; -8,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,13; 62,45</t>
+          <t>4,42; 61,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 40,06</t>
+          <t>-8,33; 41,68</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 8,11</t>
+          <t>-0,92; 8,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,55; 12,7</t>
+          <t>3,7; 13,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 4,11</t>
+          <t>-11,68; 4,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-18,66; -0,74</t>
+          <t>-18,13; -1,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 10,66</t>
+          <t>-0,37; 10,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 9,48</t>
+          <t>-1,76; 9,76</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 147,73</t>
+          <t>-10,99; 128,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>32,07; 210,5</t>
+          <t>33,15; 225,55</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 5,27</t>
+          <t>-13,93; 5,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,32; -1,08</t>
+          <t>-21,83; -1,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 36,32</t>
+          <t>-0,99; 35,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 30,97</t>
+          <t>-4,94; 32,48</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,36</t>
+          <t>2,53; 7,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,44</t>
+          <t>2,81; 7,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -10,15</t>
+          <t>-19,32; -10,06</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-21,07; -11,76</t>
+          <t>-20,81; -11,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,31</t>
+          <t>1,74; 7,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,06</t>
+          <t>0,61; 6,22</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>29,53; 110,76</t>
+          <t>28,61; 110,49</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>30,53; 111,31</t>
+          <t>33,35; 112,09</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -12,58</t>
+          <t>-22,71; -12,51</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-24,95; -14,62</t>
+          <t>-24,64; -14,52</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>4,97; 25,24</t>
+          <t>5,63; 25,44</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,68; 21,29</t>
+          <t>1,84; 21,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P74B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 14,32</t>
+          <t>-14,03; 14,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 17,78</t>
+          <t>-11,45; 18,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 19,11</t>
+          <t>-19,15; 21,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 15,03</t>
+          <t>-30,58; 15,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 19,07</t>
+          <t>-11,75; 17,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 17,67</t>
+          <t>-12,58; 16,23</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-64,19; 144,21</t>
+          <t>-62,97; 165,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,81; 196,8</t>
+          <t>-51,24; 209,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 29,18</t>
+          <t>-22,56; 31,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 22,57</t>
+          <t>-36,53; 25,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,34; 62,22</t>
+          <t>-26,69; 57,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,67; 58,04</t>
+          <t>-28,5; 55,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 14,45</t>
+          <t>3,21; 14,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 7,42</t>
+          <t>-1,9; 7,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,7; -20,88</t>
+          <t>-40,87; -20,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,33; -11,92</t>
+          <t>-30,42; -11,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 7,35</t>
+          <t>-6,42; 7,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 8,58</t>
+          <t>-4,41; 8,53</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,44; 255,99</t>
+          <t>31,38; 254,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 151,74</t>
+          <t>-23,2; 141,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,9; -24,92</t>
+          <t>-44,71; -24,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,71; -14,01</t>
+          <t>-33,47; -14,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 26,2</t>
+          <t>-18,83; 25,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 30,26</t>
+          <t>-12,62; 29,94</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 8,81</t>
+          <t>0,44; 8,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 9,71</t>
+          <t>0,76; 9,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,86; -12,32</t>
+          <t>-27,92; -11,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-29,28; -13,94</t>
+          <t>-29,9; -13,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 9,22</t>
+          <t>-0,9; 9,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 10,35</t>
+          <t>-0,19; 10,31</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 139,62</t>
+          <t>2,75; 140,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,34; 153,02</t>
+          <t>7,31; 154,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,42; -15,2</t>
+          <t>-31,76; -14,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,11; -16,71</t>
+          <t>-33,42; -16,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 34,05</t>
+          <t>-2,74; 35,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 38,73</t>
+          <t>-0,66; 39,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 10,56</t>
+          <t>1,22; 10,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 6,71</t>
+          <t>-0,88; 7,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,93; -1,8</t>
+          <t>-20,98; -0,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,24; -6,16</t>
+          <t>-25,87; -6,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 14,11</t>
+          <t>1,73; 13,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 9,22</t>
+          <t>-2,3; 9,1</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,3; 318,17</t>
+          <t>9,38; 335,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 193,47</t>
+          <t>-16,63; 236,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,83; -2,26</t>
+          <t>-25,02; -1,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,28; -8,11</t>
+          <t>-31,14; -8,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,42; 61,99</t>
+          <t>6,25; 59,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 41,68</t>
+          <t>-7,59; 40,27</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 8,02</t>
+          <t>-1,28; 7,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,7; 13,46</t>
+          <t>3,09; 12,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 4,25</t>
+          <t>-11,65; 4,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-18,13; -1,13</t>
+          <t>-18,06; -0,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 10,74</t>
+          <t>-1,23; 10,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 9,76</t>
+          <t>-2,04; 10,08</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 128,88</t>
+          <t>-15,29; 123,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>33,15; 225,55</t>
+          <t>29,53; 215,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 5,64</t>
+          <t>-13,92; 5,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,83; -1,54</t>
+          <t>-21,42; -0,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 35,88</t>
+          <t>-3,42; 35,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 32,48</t>
+          <t>-5,74; 33,68</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,47</t>
+          <t>2,56; 7,53</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,21</t>
+          <t>2,53; 7,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-19,32; -10,06</t>
+          <t>-19,04; -10,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-20,81; -11,64</t>
+          <t>-20,57; -11,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,74; 7,3</t>
+          <t>1,4; 7,42</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,22</t>
+          <t>0,85; 6,56</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>28,61; 110,49</t>
+          <t>31,68; 117,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>33,35; 112,09</t>
+          <t>28,51; 104,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-22,71; -12,51</t>
+          <t>-22,3; -12,79</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-24,64; -14,52</t>
+          <t>-24,41; -14,83</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,63; 25,44</t>
+          <t>4,29; 25,55</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,84; 21,33</t>
+          <t>2,7; 22,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P74B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 14,77</t>
+          <t>-12,13; 15,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 18,13</t>
+          <t>-10,99; 19,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 21,15</t>
+          <t>-19,21; 20,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,58; 15,95</t>
+          <t>-29,35; 13,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 17,74</t>
+          <t>-11,16; 18,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 16,23</t>
+          <t>-12,04; 18,08</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-62,97; 165,13</t>
+          <t>-56,66; 173,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-51,24; 209,94</t>
+          <t>-51,68; 228,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 31,28</t>
+          <t>-23,37; 30,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,53; 25,54</t>
+          <t>-34,75; 20,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,69; 57,52</t>
+          <t>-25,23; 59,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 55,04</t>
+          <t>-27,37; 56,32</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 14,07</t>
+          <t>3,8; 14,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 7,58</t>
+          <t>-2,09; 7,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,87; -20,69</t>
+          <t>-40,52; -20,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,42; -11,78</t>
+          <t>-31,08; -11,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 7,32</t>
+          <t>-5,79; 7,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 8,53</t>
+          <t>-4,71; 9,24</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,38; 254,99</t>
+          <t>26,91; 273,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 141,8</t>
+          <t>-23,42; 142,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,71; -24,91</t>
+          <t>-44,94; -24,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,47; -14,08</t>
+          <t>-34,36; -14,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 25,51</t>
+          <t>-16,68; 26,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 29,94</t>
+          <t>-14,05; 33,3</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 8,97</t>
+          <t>0,2; 8,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 9,78</t>
+          <t>1,38; 10,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,92; -11,69</t>
+          <t>-28,03; -10,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-29,9; -13,43</t>
+          <t>-28,85; -12,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 9,35</t>
+          <t>-1,32; 9,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 10,31</t>
+          <t>-0,7; 10,18</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,75; 140,67</t>
+          <t>0,01; 136,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,31; 154,92</t>
+          <t>11,16; 175,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,76; -14,28</t>
+          <t>-31,67; -13,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,42; -16,3</t>
+          <t>-33,0; -15,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 35,41</t>
+          <t>-4,61; 35,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 39,41</t>
+          <t>-2,11; 37,15</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 10,7</t>
+          <t>1,66; 11,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 7,21</t>
+          <t>-1,02; 6,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,98; -0,68</t>
+          <t>-21,22; -1,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,87; -6,06</t>
+          <t>-26,87; -6,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 13,64</t>
+          <t>1,68; 14,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 9,1</t>
+          <t>-1,82; 8,94</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,38; 335,92</t>
+          <t>21,84; 335,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 236,93</t>
+          <t>-17,54; 211,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,02; -1,04</t>
+          <t>-25,15; -1,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,14; -8,51</t>
+          <t>-32,61; -9,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,25; 59,29</t>
+          <t>6,13; 62,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 40,27</t>
+          <t>-6,49; 40,06</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 7,91</t>
+          <t>-0,99; 8,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,09; 12,88</t>
+          <t>3,55; 12,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 4,43</t>
+          <t>-11,62; 4,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-18,06; -0,66</t>
+          <t>-18,66; -0,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 10,63</t>
+          <t>-0,8; 10,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 10,08</t>
+          <t>-2,08; 9,48</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 123,75</t>
+          <t>-11,99; 147,73</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>29,53; 215,28</t>
+          <t>32,07; 210,5</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 5,84</t>
+          <t>-13,8; 5,27</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,42; -0,84</t>
+          <t>-22,32; -1,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 35,23</t>
+          <t>-2,09; 36,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 33,68</t>
+          <t>-5,28; 30,97</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,53</t>
+          <t>2,53; 7,36</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,06</t>
+          <t>2,71; 7,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -10,33</t>
+          <t>-19,22; -10,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-20,57; -11,84</t>
+          <t>-21,07; -11,76</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,4; 7,42</t>
+          <t>1,59; 7,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,56</t>
+          <t>0,49; 6,06</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>31,68; 117,0</t>
+          <t>29,53; 110,76</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>28,51; 104,88</t>
+          <t>30,53; 111,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-22,3; -12,79</t>
+          <t>-22,67; -12,58</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-24,41; -14,83</t>
+          <t>-24,95; -14,62</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>4,29; 25,55</t>
+          <t>4,97; 25,24</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>2,7; 22,95</t>
+          <t>1,68; 21,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P74B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>-24,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,32</t>
+          <t>-18,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>1,99</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 15,14</t>
+          <t>1,47; 12,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 19,99</t>
+          <t>-2,19; 7,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 20,17</t>
+          <t>-34,06; -14,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,35; 13,59</t>
+          <t>-27,81; -10,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 18,34</t>
+          <t>-5,0; 6,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 18,08</t>
+          <t>-3,51; 8,05</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>78,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>-29,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,65%</t>
+          <t>-21,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>6,12%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,66; 173,94</t>
+          <t>12,15; 183,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-51,68; 228,12</t>
+          <t>-21,0; 104,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 30,64</t>
+          <t>-38,96; -17,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 20,91</t>
+          <t>-31,6; -12,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 59,52</t>
+          <t>-14,0; 21,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 56,32</t>
+          <t>-9,88; 27,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,49</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-30,71</t>
+          <t>-20,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-21,43</t>
+          <t>-21,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>4,8</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 14,75</t>
+          <t>0,2; 8,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 7,48</t>
+          <t>1,38; 10,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,52; -20,18</t>
+          <t>-28,03; -10,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,08; -11,6</t>
+          <t>-28,85; -12,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 7,2</t>
+          <t>-1,32; 9,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 9,24</t>
+          <t>-0,7; 10,18</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>115,49%</t>
+          <t>53,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>63,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-34,92%</t>
+          <t>-23,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-24,36%</t>
+          <t>-25,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>16,21%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,91; 273,19</t>
+          <t>0,01; 136,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 142,62</t>
+          <t>11,16; 175,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,94; -24,32</t>
+          <t>-31,67; -13,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,36; -14,6</t>
+          <t>-33,0; -15,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 26,17</t>
+          <t>-4,61; 35,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 33,3</t>
+          <t>-2,11; 37,15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-20,16</t>
+          <t>-11,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-21,5</t>
+          <t>-16,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>7,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>3,32</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 8,83</t>
+          <t>1,66; 11,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 10,57</t>
+          <t>-1,02; 6,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,03; -10,93</t>
+          <t>-21,22; -1,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,85; -12,33</t>
+          <t>-26,87; -6,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 9,49</t>
+          <t>1,68; 14,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 10,18</t>
+          <t>-1,82; 8,94</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>53,83%</t>
+          <t>115,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>63,49%</t>
+          <t>59,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-23,52%</t>
+          <t>-14,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-25,09%</t>
+          <t>-20,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>12,95%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,01; 136,36</t>
+          <t>21,84; 335,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,16; 175,19</t>
+          <t>-17,54; 211,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,67; -13,37</t>
+          <t>-25,15; -1,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,0; -15,63</t>
+          <t>-32,61; -9,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 35,18</t>
+          <t>6,13; 62,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 37,15</t>
+          <t>-6,49; 40,06</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,22</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-16,46</t>
+          <t>-9,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>3,78</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,66; 11,17</t>
+          <t>-0,99; 8,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 6,42</t>
+          <t>3,55; 12,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,22; -1,22</t>
+          <t>-11,62; 4,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,87; -6,87</t>
+          <t>-18,66; -0,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,68; 14,14</t>
+          <t>-0,8; 10,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 8,94</t>
+          <t>-2,08; 9,48</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>115,31%</t>
+          <t>43,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>59,65%</t>
+          <t>105,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-14,12%</t>
+          <t>-4,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-20,71%</t>
+          <t>-12,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>11,44%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>21,84; 335,98</t>
+          <t>-11,99; 147,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 211,77</t>
+          <t>32,07; 210,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,15; -1,67</t>
+          <t>-13,8; 5,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,61; -9,38</t>
+          <t>-22,32; -1,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,13; 62,45</t>
+          <t>-2,09; 36,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 40,06</t>
+          <t>-5,28; 30,97</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-14,8</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-9,89</t>
+          <t>-16,76</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>3,49</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 8,11</t>
+          <t>2,53; 7,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,55; 12,7</t>
+          <t>2,71; 7,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 4,11</t>
+          <t>-19,22; -10,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-18,66; -0,74</t>
+          <t>-21,07; -11,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 10,66</t>
+          <t>1,59; 7,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 9,48</t>
+          <t>0,49; 6,06</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>66,12%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>105,69%</t>
+          <t>64,58%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>-17,85%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-12,25%</t>
+          <t>-20,22%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>11,53%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 147,73</t>
+          <t>29,53; 110,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>32,07; 210,5</t>
+          <t>30,53; 111,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 5,27</t>
+          <t>-22,67; -12,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,32; -1,08</t>
+          <t>-24,95; -14,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 36,32</t>
+          <t>4,97; 25,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 30,97</t>
+          <t>1,68; 21,29</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>4,89</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-14,8</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-16,76</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>3,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>2,53; 7,36</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 7,44</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-19,22; -10,15</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-21,07; -11,76</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 7,31</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 6,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>66,12%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>64,58%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-17,85%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-20,22%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>14,85%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>11,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>29,53; 110,76</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>30,53; 111,31</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-22,67; -12,58</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-24,95; -14,62</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>4,97; 25,24</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>1,68; 21,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P74B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 12,48</t>
+          <t>1,74; 12,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 7,25</t>
+          <t>-2,03; 7,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,06; -14,4</t>
+          <t>-34,15; -15,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,81; -10,31</t>
+          <t>-26,8; -9,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 6,29</t>
+          <t>-5,07; 7,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 8,05</t>
+          <t>-3,99; 8,24</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,15; 183,06</t>
+          <t>12,29; 182,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,0; 104,3</t>
+          <t>-20,78; 101,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,96; -17,71</t>
+          <t>-39,25; -19,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,6; -12,39</t>
+          <t>-29,88; -11,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 21,32</t>
+          <t>-14,04; 24,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 27,12</t>
+          <t>-10,82; 27,99</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 8,83</t>
+          <t>0,08; 8,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 10,57</t>
+          <t>0,79; 9,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,03; -10,93</t>
+          <t>-28,09; -12,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,85; -12,33</t>
+          <t>-29,54; -13,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 9,49</t>
+          <t>-1,11; 9,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 10,18</t>
+          <t>-0,48; 9,84</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,01; 136,36</t>
+          <t>2,2; 141,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,16; 175,19</t>
+          <t>5,99; 153,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,67; -13,37</t>
+          <t>-31,95; -14,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,0; -15,63</t>
+          <t>-33,31; -16,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 35,18</t>
+          <t>-3,63; 35,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 37,15</t>
+          <t>-1,46; 36,15</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 11,17</t>
+          <t>1,01; 10,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 6,42</t>
+          <t>-0,44; 7,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,22; -1,22</t>
+          <t>-21,09; -1,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,87; -6,87</t>
+          <t>-26,66; -6,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 14,14</t>
+          <t>0,81; 14,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 8,94</t>
+          <t>-2,41; 9,07</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,84; 335,98</t>
+          <t>12,08; 340,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 211,77</t>
+          <t>-12,31; 216,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,15; -1,67</t>
+          <t>-25,08; -1,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,61; -9,38</t>
+          <t>-32,11; -8,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,13; 62,45</t>
+          <t>2,87; 60,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 40,06</t>
+          <t>-8,97; 38,09</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 8,11</t>
+          <t>-0,89; 7,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,55; 12,7</t>
+          <t>3,78; 13,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 4,11</t>
+          <t>-11,24; 5,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-18,66; -0,74</t>
+          <t>-18,14; 0,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 10,66</t>
+          <t>-1,08; 10,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 9,48</t>
+          <t>-2,49; 9,41</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 147,73</t>
+          <t>-11,44; 127,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>32,07; 210,5</t>
+          <t>36,89; 239,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 5,27</t>
+          <t>-13,47; 6,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,32; -1,08</t>
+          <t>-21,21; 0,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 36,32</t>
+          <t>-3,16; 34,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 30,97</t>
+          <t>-6,71; 31,12</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,36</t>
+          <t>2,54; 7,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,44</t>
+          <t>2,71; 7,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -10,15</t>
+          <t>-19,0; -10,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-21,07; -11,76</t>
+          <t>-21,3; -12,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,31</t>
+          <t>1,78; 7,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,06</t>
+          <t>0,51; 6,24</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>29,53; 110,76</t>
+          <t>28,74; 115,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>30,53; 111,31</t>
+          <t>31,16; 111,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -12,58</t>
+          <t>-22,32; -12,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-24,95; -14,62</t>
+          <t>-25,17; -14,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,97; 25,24</t>
+          <t>5,59; 25,72</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,68; 21,29</t>
+          <t>1,58; 21,55</t>
         </is>
       </c>
     </row>
